--- a/data/Column_Names.xlsx
+++ b/data/Column_Names.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13560" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1040" windowWidth="24960" windowHeight="13560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11578,7 +11578,7 @@
   <dimension ref="B1:EMT1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Column_Names.xlsx
+++ b/data/Column_Names.xlsx
@@ -11594,7 +11594,7 @@
   <dimension ref="B1:EMS1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EMI1" workbookViewId="0">
-      <selection activeCell="EMN11" sqref="EMN11"/>
+      <selection activeCell="EMS1" sqref="EMS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Column_Names.xlsx
+++ b/data/Column_Names.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="3736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="3737">
   <si>
     <t>name</t>
   </si>
@@ -11235,6 +11235,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -11591,15 +11594,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:EMS1"/>
+  <dimension ref="B1:EMT1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EMI1" workbookViewId="0">
-      <selection activeCell="EMS1" sqref="EMS1"/>
+      <selection activeCell="EMT1" sqref="EMT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:3737" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3738" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22807,6 +22810,9 @@
       </c>
       <c r="EMS1" s="2" t="s">
         <v>3734</v>
+      </c>
+      <c r="EMT1" s="2" t="s">
+        <v>3736</v>
       </c>
     </row>
   </sheetData>
